--- a/biology/Botanique/Flora_Europaea/Flora_Europaea.xlsx
+++ b/biology/Botanique/Flora_Europaea/Flora_Europaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Flora Europaea est une flore en cinq volumes publiée entre 1964 et 1993 par Cambridge University Press. Son objectif était de rassembler et de décrire toutes les flores nationales d'Europe dans une seule publication faisant autorité pour aider les lecteurs à identifier toute plante sauvage ou largement cultivée en Europe au niveau de la sous-espèce. Elle fournit également des informations sur la répartition géographique, les préférences d'habitat et le nombre de chromosomes lorsqu'il est connu.
@@ -513,11 +525,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'idée d'une flore pan-européenne a été évoquée lors du huitième congrès international de botanique à Paris en 1954[1]. 
-En 1957, le Conseil de recherche en science et ingénierie (Science and Engineering Research Council) de Grande-Bretagne offrit une subvention pour financer un secrétariat de trois personnes[2], et le volume 1 a été publié en 1964. 
-D'autres volumes ont été publiés les années suivantes, culminant en 1980 avec le  volume 5 sur les monocotylédones. Les droits d'auteur ont été versés dans un fonds fiduciaire administré par la Société linnéenne de Londres, ce qui a permis de financer la poursuite des travaux sur le projet par le Dr John Akeroyd[3].  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée d'une flore pan-européenne a été évoquée lors du huitième congrès international de botanique à Paris en 1954. 
+En 1957, le Conseil de recherche en science et ingénierie (Science and Engineering Research Council) de Grande-Bretagne offrit une subvention pour financer un secrétariat de trois personnes, et le volume 1 a été publié en 1964. 
+D'autres volumes ont été publiés les années suivantes, culminant en 1980 avec le  volume 5 sur les monocotylédones. Les droits d'auteur ont été versés dans un fonds fiduciaire administré par la Société linnéenne de Londres, ce qui a permis de financer la poursuite des travaux sur le projet par le Dr John Akeroyd.  
 Un volume 1 révisé a été lancé à la Société linnéenne le 11 mars 1993.
 </t>
         </is>
@@ -549,32 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Volume 1 : Lycopodiaceae to Platanaceae
-publié en 1964
-Volume 2 : Rosaceae to Umbelliferae
-(ISBN 0-521-06662-X)
-(ISBN 978-0-521-06662-4)
-publié le 1er décembre 1968 (486 pages)
-Volume 3 : Diapensiaceae to Myoporaceae
-(ISBN 0-521-08489-X)
-(ISBN 978-0-521-08489-5)
-publié le  28 décembre 1972 (399 pages)
-Volume 4 : Plantaginaceae to Compositae (et Rubiaceae)
-(ISBN 0-521-08717-1)
-(ISBN 978-0-521-08717-9)
-publié le  5 août 1976 (534 pages)
-Volume 5: Alismataceae to Orchidaceae
-(ISBN 0-521-20108-X)
-(ISBN 978-0-521-20108-7)
-publié le 3 avril 1980 (476 pages)
-Volume 1 Revised: Lycopodiaceae to Platanaceae
-(ISBN 0-521-41007-X)
-(ISBN 978-0-521-41007-6)
-publié le 22 avril 1993 (629 pages)
-Collection des cinq volumes et CD-ROM
-(ISBN 0-521-80570-8)
-(ISBN 978-0-521-80570-4)
-publiés le 6 décembre 2001 (2392 pages)</t>
+          <t>Volume 1 : Lycopodiaceae to Platanaceae</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>publié en 1964</t>
         </is>
       </c>
     </row>
@@ -599,10 +594,240 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Volume 2 : Rosaceae to Umbelliferae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(ISBN 0-521-06662-X)
+(ISBN 978-0-521-06662-4)
+publié le 1er décembre 1968 (486 pages)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Volume 3 : Diapensiaceae to Myoporaceae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(ISBN 0-521-08489-X)
+(ISBN 978-0-521-08489-5)
+publié le  28 décembre 1972 (399 pages)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Volume 4 : Plantaginaceae to Compositae (et Rubiaceae)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(ISBN 0-521-08717-1)
+(ISBN 978-0-521-08717-9)
+publié le  5 août 1976 (534 pages)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Volume 5: Alismataceae to Orchidaceae</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(ISBN 0-521-20108-X)
+(ISBN 978-0-521-20108-7)
+publié le 3 avril 1980 (476 pages)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Volume 1 Revised: Lycopodiaceae to Platanaceae</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(ISBN 0-521-41007-X)
+(ISBN 978-0-521-41007-6)
+publié le 22 avril 1993 (629 pages)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Volumes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Collection des cinq volumes et CD-ROM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(ISBN 0-521-80570-8)
+(ISBN 978-0-521-80570-4)
+publiés le 6 décembre 2001 (2392 pages)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Coordinateurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Les coordinateurs désignés pour chaque éditions sont les suivants :
 Tom Tutin (1908–1987) – professeur de botanique à l'université de Leicester
@@ -617,31 +842,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Flora_Europaea</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Conseillers régionaux</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Un groupe de conseillers régionaux a été constitué afin d'assurer une couverture complète de l'ensemble de l'Europe. Plusieurs des conseillers étaient également auteurs dans leurs spécialités taxinomiques respectives. Pour chaque pays, les représentants étaient les suivants :
 Albanie - F. Markgraf
@@ -672,31 +899,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Flora_Europaea</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Flora_Europaea</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Code géographique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La distribution géographique est indiquée par une série de codes à deux lettres.
 </t>
